--- a/Devank_DSA_Foundation_Tracker.xlsx
+++ b/Devank_DSA_Foundation_Tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev75\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\interview prep\DSA PREP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFDA105-3698-46A9-88B2-AE2070CD207E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9842B93-F4C6-4B6F-BFCB-CF7A454F4A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -130,9 +130,6 @@
     <t>Inorder, Preorder, Postorder Traversal (Recursive &amp; Iterative)</t>
   </si>
   <si>
-    <t>Level Order Traversal, Height, Count Nodes</t>
-  </si>
-  <si>
     <t>Left View, Right View, Zigzag Traversal</t>
   </si>
   <si>
@@ -218,13 +215,45 @@
   </si>
   <si>
     <t xml:space="preserve">recursive done  ,  iterative done also </t>
+  </si>
+  <si>
+    <t>count nodes in O(logn) time is new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Level Order Traversal, Height, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Count Nodes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">left zigzag traversal do afterwards </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in balanced binary tree me </t>
+  </si>
+  <si>
+    <t xml:space="preserve">done  , revise once </t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,13 +269,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -287,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -295,6 +342,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,6 +659,7 @@
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="55.08984375" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.81640625" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -624,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -640,8 +690,8 @@
       <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" t="s">
-        <v>65</v>
+      <c r="D2" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -652,7 +702,13 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -663,7 +719,10 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -674,7 +733,13 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -685,7 +750,10 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -696,7 +764,10 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -707,7 +778,7 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -718,7 +789,10 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -729,7 +803,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -740,7 +814,7 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -751,7 +825,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -762,7 +836,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -773,7 +847,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -784,7 +858,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -795,7 +869,7 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -806,7 +880,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -817,7 +891,7 @@
         <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -828,7 +902,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -839,7 +913,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -850,7 +924,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -861,7 +935,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -872,7 +946,7 @@
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -883,7 +957,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -894,7 +968,7 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -905,7 +979,7 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -916,7 +990,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -927,7 +1001,7 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -938,10 +1012,11 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Devank_DSA_Foundation_Tracker.xlsx
+++ b/Devank_DSA_Foundation_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\interview prep\DSA PREP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9842B93-F4C6-4B6F-BFCB-CF7A454F4A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44D00FA-2576-4424-988C-CA7AE84A0B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handle all the 3 cases no child , 1 child , 2 child </t>
   </si>
 </sst>
 </file>
@@ -276,7 +279,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +295,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEE0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -344,6 +353,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,7 +669,7 @@
     <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="55.08984375" customWidth="1"/>
     <col min="4" max="4" width="37.7265625" customWidth="1"/>
-    <col min="5" max="5" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="68.36328125" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -752,7 +762,7 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -766,7 +776,7 @@
       <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>71</v>
       </c>
     </row>
@@ -791,7 +801,7 @@
       <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -804,6 +814,12 @@
       </c>
       <c r="C10" t="s">
         <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
